--- a/template-generation/T5 fine tune labeling.xlsx
+++ b/template-generation/T5 fine tune labeling.xlsx
@@ -1827,8 +1827,8 @@
   <dimension ref="A1:G154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F155" sqref="F155"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A155" sqref="A155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5102,7 +5102,7 @@
         <v>396</v>
       </c>
       <c r="F131" t="str">
-        <f t="shared" ref="F131:F156" si="4">_xlfn.CONCAT(A131, " # ", B131, " # ",  C131, " # ",  D131)</f>
+        <f t="shared" ref="F131:F154" si="4">_xlfn.CONCAT(A131, " # ", B131, " # ",  C131, " # ",  D131)</f>
         <v>victoria porter # customer since # 34946 # client information</v>
       </c>
       <c r="G131" t="str">
